--- a/database/industries/felezat/faira/cost/yearly.xlsx
+++ b/database/industries/felezat/faira/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A02392-AFBC-40EE-8B4A-2A8B8195BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +363,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -374,7 +375,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -421,6 +422,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -456,6 +474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/faira/cost/yearly.xlsx
+++ b/database/industries/felezat/faira/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A02392-AFBC-40EE-8B4A-2A8B8195BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AA7D0-73B4-4D4F-80D6-4C0B7A1334A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,7 +762,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -784,7 +784,7 @@
         <v>57248534</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
         <v>4693002</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>21160753</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>83102289</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,7 +872,7 @@
         <v>-1357901</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -894,7 +894,7 @@
         <v>81744388</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>-2565919</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,7 +938,7 @@
         <v>-478138</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -960,7 +960,7 @@
         <v>78700331</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -982,7 +982,7 @@
         <v>6064213</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>-15165856</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>69598688</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>69598688</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>21762</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>80922</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>6918</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>116310</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1284,7 +1284,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1294,7 +1294,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1304,7 +1304,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1336,7 +1336,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>20905</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>311187</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>36536</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>409260</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1488,7 +1488,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>49514</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>15930</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>345784</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>37277</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>448505</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>12880</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>11683</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>46325</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>6177</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>77065</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1896,7 +1896,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1906,7 +1906,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1916,7 +1916,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>36</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1948,7 +1948,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>3150814</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>537232</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>28</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8272712</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1450471</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>13411229</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2100,7 +2100,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2110,7 +2110,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2120,7 +2120,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>37</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2152,7 +2152,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>9494183</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>4355175</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>39708241</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>4811566</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>58369165</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2304,7 +2304,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2314,7 +2314,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2324,7 +2324,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>38</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>9477320</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>2506110</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>28</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>40949545</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>4315559</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>57248534</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2508,7 +2508,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2518,7 +2518,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2528,7 +2528,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>39</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2560,7 +2560,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>3167677</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>2386297</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>28</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>7031408</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1946478</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>30</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>14531860</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2712,7 +2712,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2722,7 +2722,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2732,7 +2732,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>40</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2764,7 +2764,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>144785130</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>80088253</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>28</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>102230691</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>29</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>209666233</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2870,7 +2870,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2880,7 +2880,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2890,7 +2890,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>42</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2922,7 +2922,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>233662704</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>208331739</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>28</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>127602506</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>29</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>131693836</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3028,7 +3028,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>43</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3080,7 +3080,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>24</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>191406875</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>27</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>157320151</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>118425216</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>29</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>115770019</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3186,7 +3186,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3196,7 +3196,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3206,7 +3206,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>44</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3238,7 +3238,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>245937655</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>204253788</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>151784307</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>315117047</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3344,7 +3344,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3354,7 +3354,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3364,7 +3364,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>45</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3396,7 +3396,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>47</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>48</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>49</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>50</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>51</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>13907482</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>52</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>501406</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>53</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>3949874</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>54</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>55</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2801991</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
         <v>12</v>
       </c>
